--- a/data/output/FV2410_FV2404/UTILMD/55195.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55195.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4466" uniqueCount="369">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4487" uniqueCount="369">
+  <si>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1236,6 +1236,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U200" totalsRowShown="0">
+  <autoFilter ref="A1:U200"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2404"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="3" name="Segment_FV2404"/>
+    <tableColumn id="4" name="Datenelement_FV2404"/>
+    <tableColumn id="5" name="Segment ID_FV2404"/>
+    <tableColumn id="6" name="Code_FV2404"/>
+    <tableColumn id="7" name="Qualifier_FV2404"/>
+    <tableColumn id="8" name="Beschreibung_FV2404"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="10" name="Bedingung_FV2404"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2410"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="14" name="Segment_FV2410"/>
+    <tableColumn id="15" name="Datenelement_FV2410"/>
+    <tableColumn id="16" name="Segment ID_FV2410"/>
+    <tableColumn id="17" name="Code_FV2410"/>
+    <tableColumn id="18" name="Qualifier_FV2410"/>
+    <tableColumn id="19" name="Beschreibung_FV2410"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="21" name="Bedingung_FV2410"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1525,7 +1555,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -11196,5 +11229,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2410_FV2404/UTILMD/55195.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55195.xlsx
@@ -2243,7 +2243,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2821,7 +2821,7 @@
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N13" s="2"/>
@@ -2967,7 +2967,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N16" s="2"/>
@@ -3171,7 +3171,7 @@
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N20" s="2"/>
@@ -3369,7 +3369,7 @@
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="2" t="s">
+      <c r="M24" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N24" s="2" t="s">
@@ -3569,7 +3569,7 @@
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="4"/>
-      <c r="M28" s="2" t="s">
+      <c r="M28" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N28" s="2" t="s">
@@ -3877,7 +3877,7 @@
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -4077,7 +4077,7 @@
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="4"/>
-      <c r="M38" s="2" t="s">
+      <c r="M38" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N38" s="2" t="s">
@@ -4451,7 +4451,7 @@
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="4"/>
-      <c r="M45" s="2" t="s">
+      <c r="M45" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N45" s="2" t="s">
@@ -4763,7 +4763,7 @@
       </c>
       <c r="K51" s="2"/>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -4959,7 +4959,7 @@
       </c>
       <c r="K55" s="2"/>
       <c r="L55" s="4"/>
-      <c r="M55" s="2" t="s">
+      <c r="M55" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N55" s="2" t="s">
@@ -5159,7 +5159,7 @@
       </c>
       <c r="K59" s="2"/>
       <c r="L59" s="4"/>
-      <c r="M59" s="2" t="s">
+      <c r="M59" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N59" s="2" t="s">
@@ -5359,7 +5359,7 @@
       </c>
       <c r="K63" s="2"/>
       <c r="L63" s="4"/>
-      <c r="M63" s="2" t="s">
+      <c r="M63" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N63" s="2" t="s">
@@ -5505,7 +5505,7 @@
       </c>
       <c r="K66" s="2"/>
       <c r="L66" s="4"/>
-      <c r="M66" s="2" t="s">
+      <c r="M66" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N66" s="2" t="s">
@@ -5661,7 +5661,7 @@
         <v>348</v>
       </c>
       <c r="L69" s="4"/>
-      <c r="M69" s="2" t="s">
+      <c r="M69" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N69" s="2" t="s">
@@ -5865,7 +5865,7 @@
         <v>349</v>
       </c>
       <c r="L73" s="4"/>
-      <c r="M73" s="2" t="s">
+      <c r="M73" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N73" s="2" t="s">
@@ -6089,7 +6089,7 @@
         <v>351</v>
       </c>
       <c r="L77" s="4"/>
-      <c r="M77" s="2" t="s">
+      <c r="M77" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N77" s="2" t="s">
@@ -6309,7 +6309,7 @@
         <v>352</v>
       </c>
       <c r="L81" s="4"/>
-      <c r="M81" s="2" t="s">
+      <c r="M81" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N81" s="2" t="s">
@@ -6513,7 +6513,7 @@
         <v>354</v>
       </c>
       <c r="L85" s="4"/>
-      <c r="M85" s="2" t="s">
+      <c r="M85" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N85" s="2" t="s">
@@ -6717,7 +6717,7 @@
         <v>355</v>
       </c>
       <c r="L89" s="4"/>
-      <c r="M89" s="2" t="s">
+      <c r="M89" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N89" s="2" t="s">
@@ -6865,7 +6865,7 @@
       </c>
       <c r="K92" s="2"/>
       <c r="L92" s="4"/>
-      <c r="M92" s="2" t="s">
+      <c r="M92" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N92" s="2" t="s">
@@ -7025,7 +7025,7 @@
         <v>356</v>
       </c>
       <c r="L95" s="4"/>
-      <c r="M95" s="2" t="s">
+      <c r="M95" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N95" s="2" t="s">
@@ -7285,7 +7285,7 @@
       </c>
       <c r="K100" s="2"/>
       <c r="L100" s="4"/>
-      <c r="M100" s="2" t="s">
+      <c r="M100" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N100" s="2" t="s">
@@ -7543,7 +7543,7 @@
       </c>
       <c r="K105" s="2"/>
       <c r="L105" s="4"/>
-      <c r="M105" s="2" t="s">
+      <c r="M105" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N105" s="2" t="s">
@@ -7797,7 +7797,7 @@
       </c>
       <c r="K110" s="2"/>
       <c r="L110" s="4"/>
-      <c r="M110" s="2" t="s">
+      <c r="M110" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N110" s="2" t="s">
@@ -7945,7 +7945,7 @@
         <v>359</v>
       </c>
       <c r="L113" s="4"/>
-      <c r="M113" s="2" t="s">
+      <c r="M113" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N113" s="2" t="s">
@@ -8109,7 +8109,7 @@
       </c>
       <c r="K116" s="2"/>
       <c r="L116" s="4"/>
-      <c r="M116" s="2" t="s">
+      <c r="M116" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N116" s="2" t="s">
@@ -8263,7 +8263,7 @@
       </c>
       <c r="K119" s="2"/>
       <c r="L119" s="4"/>
-      <c r="M119" s="2" t="s">
+      <c r="M119" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N119" s="2" t="s">
@@ -8461,7 +8461,7 @@
         <v>361</v>
       </c>
       <c r="L123" s="4"/>
-      <c r="M123" s="2" t="s">
+      <c r="M123" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N123" s="2" t="s">
@@ -8659,7 +8659,7 @@
       </c>
       <c r="K127" s="2"/>
       <c r="L127" s="4"/>
-      <c r="M127" s="2" t="s">
+      <c r="M127" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N127" s="2" t="s">
@@ -8857,7 +8857,7 @@
         <v>352</v>
       </c>
       <c r="L131" s="4"/>
-      <c r="M131" s="2" t="s">
+      <c r="M131" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N131" s="2" t="s">
@@ -9159,7 +9159,7 @@
       </c>
       <c r="K137" s="2"/>
       <c r="L137" s="4"/>
-      <c r="M137" s="2" t="s">
+      <c r="M137" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N137" s="2" t="s">
@@ -9359,7 +9359,7 @@
       </c>
       <c r="K141" s="2"/>
       <c r="L141" s="4"/>
-      <c r="M141" s="2" t="s">
+      <c r="M141" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N141" s="2" t="s">
@@ -9561,7 +9561,7 @@
         <v>362</v>
       </c>
       <c r="L145" s="4"/>
-      <c r="M145" s="2" t="s">
+      <c r="M145" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N145" s="2" t="s">
@@ -9665,7 +9665,7 @@
         <v>363</v>
       </c>
       <c r="L147" s="4"/>
-      <c r="M147" s="2" t="s">
+      <c r="M147" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N147" s="2" t="s">
@@ -9813,7 +9813,7 @@
       </c>
       <c r="K150" s="2"/>
       <c r="L150" s="4"/>
-      <c r="M150" s="2" t="s">
+      <c r="M150" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N150" s="2" t="s">
@@ -9975,7 +9975,7 @@
       </c>
       <c r="K153" s="2"/>
       <c r="L153" s="4"/>
-      <c r="M153" s="2" t="s">
+      <c r="M153" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N153" s="2" t="s">
@@ -10193,7 +10193,7 @@
         <v>365</v>
       </c>
       <c r="L157" s="4"/>
-      <c r="M157" s="2" t="s">
+      <c r="M157" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N157" s="2" t="s">
@@ -10341,7 +10341,7 @@
       </c>
       <c r="K160" s="2"/>
       <c r="L160" s="4"/>
-      <c r="M160" s="2" t="s">
+      <c r="M160" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N160" s="2" t="s">
@@ -10499,7 +10499,7 @@
       </c>
       <c r="K163" s="2"/>
       <c r="L163" s="4"/>
-      <c r="M163" s="2" t="s">
+      <c r="M163" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N163" s="2" t="s">
@@ -10645,7 +10645,7 @@
       </c>
       <c r="K166" s="2"/>
       <c r="L166" s="4"/>
-      <c r="M166" s="2" t="s">
+      <c r="M166" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N166" s="2" t="s">
@@ -10801,7 +10801,7 @@
         <v>366</v>
       </c>
       <c r="L169" s="4"/>
-      <c r="M169" s="2" t="s">
+      <c r="M169" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N169" s="2" t="s">
@@ -11001,7 +11001,7 @@
         <v>367</v>
       </c>
       <c r="L173" s="4"/>
-      <c r="M173" s="2" t="s">
+      <c r="M173" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N173" s="2" t="s">
@@ -11149,7 +11149,7 @@
       </c>
       <c r="K176" s="2"/>
       <c r="L176" s="4"/>
-      <c r="M176" s="2" t="s">
+      <c r="M176" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N176" s="2" t="s">
@@ -11311,7 +11311,7 @@
       </c>
       <c r="K179" s="2"/>
       <c r="L179" s="4"/>
-      <c r="M179" s="2" t="s">
+      <c r="M179" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N179" s="2" t="s">
@@ -11529,7 +11529,7 @@
         <v>369</v>
       </c>
       <c r="L183" s="4"/>
-      <c r="M183" s="2" t="s">
+      <c r="M183" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N183" s="2" t="s">
@@ -11677,7 +11677,7 @@
       </c>
       <c r="K186" s="2"/>
       <c r="L186" s="4"/>
-      <c r="M186" s="2" t="s">
+      <c r="M186" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N186" s="2" t="s">
@@ -11835,7 +11835,7 @@
       </c>
       <c r="K189" s="2"/>
       <c r="L189" s="4"/>
-      <c r="M189" s="2" t="s">
+      <c r="M189" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N189" s="2" t="s">
@@ -11993,7 +11993,7 @@
       </c>
       <c r="K192" s="2"/>
       <c r="L192" s="4"/>
-      <c r="M192" s="2" t="s">
+      <c r="M192" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N192" s="2" t="s">
@@ -12295,7 +12295,7 @@
       </c>
       <c r="K198" s="2"/>
       <c r="L198" s="4"/>
-      <c r="M198" s="2" t="s">
+      <c r="M198" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N198" s="2"/>
